--- a/CashFlow/VLO_cashflow.xlsx
+++ b/CashFlow/VLO_cashflow.xlsx
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>2347000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2351000000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>-2480000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>139000000.0</v>
@@ -634,10 +630,8 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>-3570000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2773000000.0</v>
@@ -978,10 +972,8 @@
           <t>Accounts Payable Change</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>3146000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>-4068000000.0</v>
@@ -1151,10 +1143,8 @@
           <t>Change in payables and accrued liability</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>16230000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>17809000000.0</v>
@@ -1324,10 +1314,8 @@
           <t>Income tax paid</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>69000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-206000000.0</v>
@@ -1497,10 +1485,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>899000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>48000000.0</v>
@@ -1626,10 +1612,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>945000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>948000000.0</v>
@@ -1755,10 +1739,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>-1689000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-1788000000.0</v>
@@ -2053,10 +2035,8 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>-47000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>-54000000.0</v>
@@ -2222,10 +2202,8 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>-414000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>-177000000.0</v>
@@ -2351,10 +2329,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-2248000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-2425000000.0</v>
@@ -2480,10 +2456,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>3697000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>4075000000.0</v>
@@ -2613,10 +2587,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>-23000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-156000000.0</v>
@@ -2742,10 +2714,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-1599000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-1600000000.0</v>
@@ -2871,10 +2841,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>-2803000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-261000000.0</v>
@@ -3000,10 +2968,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>1833000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2077000000.0</v>
@@ -3129,10 +3095,8 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>209000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>130000000.0</v>
@@ -3258,10 +3222,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>739000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>730000000.0</v>
@@ -3387,10 +3349,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>3313000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2583000000.0</v>
@@ -3516,10 +3476,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>4052000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3313000000.0</v>
@@ -3839,7 +3797,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-1407000000.0</v>
+        <v>-1807000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-1808000000.0</v>
@@ -3965,10 +3923,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>1053000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-435000000.0</v>
@@ -4094,10 +4050,8 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-47000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-54000000.0</v>
@@ -4263,10 +4217,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>-23000000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>-156000000.0</v>
